--- a/Module 31 - Consolidated Financial Statements Associates and Joint Ventures.xlsx
+++ b/Module 31 - Consolidated Financial Statements Associates and Joint Ventures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ukdeloitte-my.sharepoint.com/personal/bcornish_deloitte_co_uk/Documents/ICAS/TPS/FINREP/Bob's FINREP Class Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1479" documentId="8_{FEDC218B-6930-489C-822E-738A752A3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BBB875F-E674-40FC-9EE8-A698F31B4787}"/>
+  <xr:revisionPtr revIDLastSave="1738" documentId="8_{FEDC218B-6930-489C-822E-738A752A3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A29FE54-30DA-4DC1-BC5E-D135C9DA68C6}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3015" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="7" xr2:uid="{E0262D06-0603-49ED-99A5-10CDDF6CAD70}"/>
+    <workbookView xWindow="7920" yWindow="-11235" windowWidth="21600" windowHeight="11160" activeTab="1" xr2:uid="{E0262D06-0603-49ED-99A5-10CDDF6CAD70}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="334">
   <si>
     <t>parent - Sub</t>
   </si>
@@ -868,6 +868,183 @@
   </si>
   <si>
     <t>WSE31.6</t>
+  </si>
+  <si>
+    <t>Herschel group</t>
+  </si>
+  <si>
+    <t>Herschel</t>
+  </si>
+  <si>
+    <t>Burgundy</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>disrt</t>
+  </si>
+  <si>
+    <t>other income</t>
+  </si>
+  <si>
+    <t>This is a JV</t>
+  </si>
+  <si>
+    <t>ok, so shares were paid for in exchange for some PPE</t>
+  </si>
+  <si>
+    <t>resid value</t>
+  </si>
+  <si>
+    <t>FV</t>
+  </si>
+  <si>
+    <t>remaining useful life</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>reval the property to FV then dispose of in exchange for shares</t>
+  </si>
+  <si>
+    <t>reval</t>
+  </si>
+  <si>
+    <t>cr - PPE cost</t>
+  </si>
+  <si>
+    <t>gain on reval</t>
+  </si>
+  <si>
+    <t>dr - PPE AD</t>
+  </si>
+  <si>
+    <t>dr - investment in Burgundy</t>
+  </si>
+  <si>
+    <t>being increase on reval of PPE and sale for shares</t>
+  </si>
+  <si>
+    <t>cr - SPL gain on reval</t>
+  </si>
+  <si>
+    <t>Herschel first</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>SPL other inceom</t>
+  </si>
+  <si>
+    <t>not a group, so not subsiduiary consolidated accounts required.   Just need a separate line</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>group share</t>
+  </si>
+  <si>
+    <t>being reversal of unrealised profits</t>
+  </si>
+  <si>
+    <t>dr - SPL other income</t>
+  </si>
+  <si>
+    <t>cr - investment in Burgundy</t>
+  </si>
+  <si>
+    <t>dr - share of profit of Burgundy</t>
+  </si>
+  <si>
+    <t>Recognition of property and subsequent depreciation (Burgundy)</t>
+  </si>
+  <si>
+    <t>Dr - property</t>
+  </si>
+  <si>
+    <t>cr - Share capital</t>
+  </si>
+  <si>
+    <t>being correctiong to Burgundy's financial statements to recognise property received in  exchange for issue of capital</t>
+  </si>
+  <si>
+    <t>dr - depr'n</t>
+  </si>
+  <si>
+    <t>cr - Property - AD</t>
+  </si>
+  <si>
+    <t>being Burgundy's additional depreciation charge for the year</t>
+  </si>
+  <si>
+    <t>R1 Corrections to individual financial statements</t>
+  </si>
+  <si>
+    <t>Equity method of accounting for JV</t>
+  </si>
+  <si>
+    <t>Step 1:  adjust for any gain from bargain purchase</t>
+  </si>
+  <si>
+    <t>Investment in Burgundy</t>
+  </si>
+  <si>
+    <t>group share of net assets</t>
+  </si>
+  <si>
+    <t>no bargain purchase or gw</t>
+  </si>
+  <si>
+    <t>step 2:</t>
+  </si>
+  <si>
+    <t>Allocate share of associate's historical profit/loss and other gains and losses to the group</t>
+  </si>
+  <si>
+    <t>N/a - JV incorporated 01/08/2017</t>
+  </si>
+  <si>
+    <t>Step 3:  Allocate CY profit/loss and other gains/losses to the group</t>
+  </si>
+  <si>
+    <t>Draft profit for the year</t>
+  </si>
+  <si>
+    <t>Depreciation charge</t>
+  </si>
+  <si>
+    <t>Adjusted profit for the year</t>
+  </si>
+  <si>
+    <t>Group share of current profit</t>
+  </si>
+  <si>
+    <t>cr - SPL share of Burgundy profit</t>
+  </si>
+  <si>
+    <t>being group share of current year profits</t>
+  </si>
+  <si>
+    <t>Step 4:  Eliminate group share of IC transactions and balances</t>
+  </si>
+  <si>
+    <t>IC divi</t>
+  </si>
+  <si>
+    <t>IC sales and purchases</t>
+  </si>
+  <si>
+    <t>Herschel Group, excl. Burgundy</t>
+  </si>
+  <si>
+    <t>Share of profit of joint venture</t>
+  </si>
+  <si>
+    <t>exclude Burgundy from the FS as not a 50% controlled entity so must not be consolidated</t>
   </si>
 </sst>
 </file>
@@ -979,7 +1156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1007,6 +1184,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1462,7 +1640,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,8 +1701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2D6D1B-1138-44C9-9643-89898B1BA1CC}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E225" sqref="E225"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -2672,9 +2850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D28AE9D-3628-4BF5-A426-4C5E93FA6B4E}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3125,6 +3301,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{D2196BD0-53B4-46F5-BB42-75EEC20653DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3132,9 +3309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF5D46A-F864-4D62-B3D6-3087B3FD7C48}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5021,6 +5196,7 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{F4B3A6BF-5BCC-40C9-BF99-DB3901D19DAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5028,9 +5204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BF9EA7-7ABB-4C21-8952-5A9EB14AB492}">
   <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6506,20 +6680,813 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EE358C-F4A9-4AAE-910F-7B2F80E8541D}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
-    </sheetView>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="10">
+        <v>43312</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="12">
+        <v>52333</v>
+      </c>
+      <c r="D6" s="12">
+        <v>6521</v>
+      </c>
+      <c r="E6" s="12">
+        <v>52333</v>
+      </c>
+      <c r="H6" s="12">
+        <f>+E6-F6+G6</f>
+        <v>52333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-32113</v>
+      </c>
+      <c r="D7" s="12">
+        <v>-2400</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-32113</v>
+      </c>
+      <c r="H7" s="12">
+        <f>+E7-F7+G7</f>
+        <v>-32113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="12">
+        <f>SUM(C6:C7)</f>
+        <v>20220</v>
+      </c>
+      <c r="D8" s="12">
+        <f>SUM(D6:D7)</f>
+        <v>4121</v>
+      </c>
+      <c r="E8" s="12">
+        <f>SUM(E6:E7)</f>
+        <v>20220</v>
+      </c>
+      <c r="H8" s="12">
+        <f>SUM(H6:H7)</f>
+        <v>20220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="12">
+        <v>1883</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1883</v>
+      </c>
+      <c r="F9" s="1">
+        <f>+E90</f>
+        <v>75</v>
+      </c>
+      <c r="G9" s="1">
+        <f>+F39</f>
+        <v>25</v>
+      </c>
+      <c r="H9" s="12">
+        <f>+E9-F9+G9</f>
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-4076</v>
+      </c>
+      <c r="D10" s="12">
+        <v>-575</v>
+      </c>
+      <c r="E10" s="12">
+        <v>-4076</v>
+      </c>
+      <c r="H10" s="12">
+        <f>+E10-F10+G10</f>
+        <v>-4076</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-9725</v>
+      </c>
+      <c r="D11" s="12">
+        <v>-1010</v>
+      </c>
+      <c r="E11" s="12">
+        <v>-9725</v>
+      </c>
+      <c r="H11" s="12">
+        <f>+E11-F11+G11</f>
+        <v>-9725</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-2003</v>
+      </c>
+      <c r="D12" s="12">
+        <v>-24</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-2003</v>
+      </c>
+      <c r="H12" s="12">
+        <f>+E12-F12+G12</f>
+        <v>-2003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <f>+E102</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G13" s="1">
+        <f>+F75</f>
+        <v>687</v>
+      </c>
+      <c r="H13" s="12">
+        <f>+E13-F13+G13</f>
+        <v>682.83333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="12">
+        <f>SUM(C8:C12)</f>
+        <v>6299</v>
+      </c>
+      <c r="D14" s="12">
+        <f>SUM(D8:D12)</f>
+        <v>2512</v>
+      </c>
+      <c r="E14" s="12">
+        <f>SUM(E8:E12)</f>
+        <v>6299</v>
+      </c>
+      <c r="H14" s="12">
+        <f>SUM(H8:H13)</f>
+        <v>6931.833333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-1201</v>
+      </c>
+      <c r="D15" s="12">
+        <v>-401</v>
+      </c>
+      <c r="E15" s="12">
+        <v>-1201</v>
+      </c>
+      <c r="H15" s="12">
+        <f>+E15-F15+G15</f>
+        <v>-1201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="12">
+        <f>SUM(C14:C15)</f>
+        <v>5098</v>
+      </c>
+      <c r="D16" s="12">
+        <f>SUM(D14:D15)</f>
+        <v>2111</v>
+      </c>
+      <c r="E16" s="12">
+        <f>SUM(E14:E15)</f>
+        <v>5098</v>
+      </c>
+      <c r="H16" s="12">
+        <f>SUM(H14:H15)</f>
+        <v>5730.833333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="10">
+        <v>42948</v>
+      </c>
+      <c r="D29" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C30" s="10">
+        <v>42948</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="1">
+        <f>+D30-D29</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" s="1">
+        <f>2*12</f>
+        <v>24</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E36" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" s="1">
+        <f>+D28</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C38" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C39" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="1">
+        <f>+D31</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C44" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" s="1">
+        <f>+E43</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E46" s="1">
+        <f>+E43/2</f>
+        <v>50</v>
+      </c>
+      <c r="G46" s="1" t="str">
+        <f ca="1">+_xlfn.FORMULATEXT(E46)</f>
+        <v>=+E43/2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C47" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F47" s="1">
+        <f>+E46</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D54" s="1">
+        <f>+F44</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C58" s="1">
+        <f>SUM(C56:C57)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="2">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D59" s="1">
+        <f>+C59*C58</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="5">
+        <f>+D54-D59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E69" s="12">
+        <f>+D16</f>
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E70" s="1">
+        <f>-E46</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" s="21">
+        <f>SUM(E69:E70)</f>
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" s="2">
+        <f>+C59</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E72" s="5">
+        <f>+E71*D72</f>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E74" s="1">
+        <f>+E72</f>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C75" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F75" s="1">
+        <f>+E74</f>
+        <v>687</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="19">
+        <v>75</v>
+      </c>
+      <c r="E84" s="19">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="D87" s="19">
+        <v>300</v>
+      </c>
+      <c r="E87" s="19">
+        <f>+C87*D87</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E88" s="19">
+        <f>+E87*D88</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="E90" s="19">
+        <f>+E88</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="F91" s="19">
+        <f>+E88</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="1">
+        <v>250</v>
+      </c>
+      <c r="D96" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C97" s="1">
+        <f>+C96*D97/D96</f>
+        <v>200</v>
+      </c>
+      <c r="D97" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C98" s="1">
+        <f>+C96-C97</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C99" s="1">
+        <f>0.25*C98</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="12">
+        <f>+C99/3</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12">
+        <f>+C100</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C103" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12">
+        <f>+E102</f>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{70F5B70F-8395-45DB-8583-18BFFD535B2C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6529,9 +7496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655D3619-DB7D-4346-9964-45802D805B9C}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6590,5 +7555,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{207B0207-3A33-465F-B4CA-A634518B03D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Module 31 - Consolidated Financial Statements Associates and Joint Ventures.xlsx
+++ b/Module 31 - Consolidated Financial Statements Associates and Joint Ventures.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1738" documentId="8_{FEDC218B-6930-489C-822E-738A752A3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A29FE54-30DA-4DC1-BC5E-D135C9DA68C6}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="-11235" windowWidth="21600" windowHeight="11160" activeTab="1" xr2:uid="{E0262D06-0603-49ED-99A5-10CDDF6CAD70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E0262D06-0603-49ED-99A5-10CDDF6CAD70}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>

--- a/Module 31 - Consolidated Financial Statements Associates and Joint Ventures.xlsx
+++ b/Module 31 - Consolidated Financial Statements Associates and Joint Ventures.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1738" documentId="8_{FEDC218B-6930-489C-822E-738A752A3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A29FE54-30DA-4DC1-BC5E-D135C9DA68C6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E0262D06-0603-49ED-99A5-10CDDF6CAD70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="7" xr2:uid="{E0262D06-0603-49ED-99A5-10CDDF6CAD70}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1639,9 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67BAC3A-CB43-4464-ABAE-DC0ED1A9AD32}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1701,9 +1699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2D6D1B-1138-44C9-9643-89898B1BA1CC}">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2850,7 +2846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D28AE9D-3628-4BF5-A426-4C5E93FA6B4E}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3309,7 +3305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF5D46A-F864-4D62-B3D6-3087B3FD7C48}">
   <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4299,7 +4295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F2AAD71-9745-44FF-8518-FC1E20162CCB}">
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5204,7 +5200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BF9EA7-7ABB-4C21-8952-5A9EB14AB492}">
   <dimension ref="A1:F195"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6682,7 +6678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EE358C-F4A9-4AAE-910F-7B2F80E8541D}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7496,7 +7492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655D3619-DB7D-4346-9964-45802D805B9C}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
